--- a/REGULAR/MAYORS OFFICE/ROMILLA, EDITHA.xlsx
+++ b/REGULAR/MAYORS OFFICE/ROMILLA, EDITHA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>11/17,20/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1154,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1194,7 +1197,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,7 +1261,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1321,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1387,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1450,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1545,7 +1548,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1607,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1672,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,7 +1715,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1790,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1976,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2039,7 +2042,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2100,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2166,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +2222,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2297,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2340,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2406,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2462,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2560,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,7 +2623,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2689,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3064,12 +3067,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K147"/>
+  <dimension ref="A2:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane ySplit="3255" topLeftCell="A95" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
+      <selection pane="bottomLeft" activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3230,7 +3233,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>70.603999999999999</v>
+        <v>73.103999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3240,7 +3243,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>99</v>
+        <v>101.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5521,13 +5524,15 @@
       <c r="B115" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C115" s="13"/>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
@@ -5583,13 +5588,15 @@
         <v>45261</v>
       </c>
       <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
+      <c r="C118" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D118" s="39"/>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G118" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
@@ -5597,8 +5604,8 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40">
-        <v>45292</v>
+      <c r="A119" s="48" t="s">
+        <v>84</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5616,9 +5623,11 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B120" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
@@ -5630,11 +5639,13 @@
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
+      <c r="K120" s="49">
+        <v>45313</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5652,7 +5663,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5670,7 +5681,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5688,7 +5699,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5706,7 +5717,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5724,7 +5735,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5742,7 +5753,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5760,7 +5771,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5778,7 +5789,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5796,7 +5807,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5814,7 +5825,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5832,7 +5843,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5850,7 +5861,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5868,7 +5879,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5886,7 +5897,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5904,7 +5915,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5922,7 +5933,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5940,7 +5951,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5958,7 +5969,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5976,7 +5987,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5994,7 +6005,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -6012,7 +6023,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -6030,7 +6041,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -6048,7 +6059,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -6066,7 +6077,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -6083,7 +6094,9 @@
       <c r="K145" s="20"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
+      <c r="A146" s="40">
+        <v>46082</v>
+      </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
       <c r="D146" s="39"/>
@@ -6099,20 +6112,36 @@
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="41"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="43"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="42" t="str">
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H147" s="43"/>
+      <c r="H147" s="39"/>
       <c r="I147" s="9"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="15"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="41"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="43"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MAYORS OFFICE/ROMILLA, EDITHA.xlsx
+++ b/REGULAR/MAYORS OFFICE/ROMILLA, EDITHA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC28EAA-D69E-40CE-B66F-60D4A5356E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -289,12 +290,15 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1154,7 +1158,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1201,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1261,7 +1265,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1325,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1391,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1454,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1552,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1611,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1676,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1719,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1794,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1980,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2046,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2100,7 +2104,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2170,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2226,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2301,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2340,7 +2344,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2410,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2466,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2564,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2627,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +2676,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2689,25 +2693,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2719,13 +2723,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2734,14 +2738,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3045,7 +3049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3055,7 +3059,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3063,34 +3067,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="3255" topLeftCell="A95" activePane="bottomLeft"/>
+      <pane ySplit="3252" topLeftCell="A107" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K120" sqref="K120"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3111,7 +3115,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3129,7 +3133,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3151,7 +3155,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3159,7 +3163,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3172,7 +3176,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3189,7 +3193,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3224,7 +3228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3233,7 +3237,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>73.103999999999999</v>
+        <v>72.353999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3243,12 +3247,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>101.5</v>
+        <v>102.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3270,7 +3274,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>42552</v>
       </c>
@@ -3290,7 +3294,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>42583</v>
@@ -3311,7 +3315,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A55" si="0">EDATE(A12,1)</f>
         <v>42614</v>
@@ -3332,7 +3336,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>42644</v>
@@ -3353,7 +3357,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>42675</v>
@@ -3374,7 +3378,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>42705</v>
@@ -3395,7 +3399,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -3413,7 +3417,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>42736</v>
@@ -3434,7 +3438,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>42767</v>
@@ -3455,7 +3459,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>42795</v>
@@ -3476,7 +3480,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>42826</v>
@@ -3497,7 +3501,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>42856</v>
@@ -3518,7 +3522,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>42887</v>
@@ -3545,7 +3549,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>42917</v>
@@ -3566,7 +3570,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>42948</v>
@@ -3593,7 +3597,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>42979</v>
@@ -3614,7 +3618,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -3635,7 +3639,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -3656,7 +3660,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -3681,7 +3685,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>47</v>
       </c>
@@ -3699,7 +3703,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f>EDATE(A29,1)</f>
         <v>43101</v>
@@ -3720,7 +3724,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>43132</v>
@@ -3741,7 +3745,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -3762,7 +3766,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -3789,7 +3793,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>59</v>
@@ -3807,7 +3811,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f>EDATE(A34,1)</f>
         <v>43221</v>
@@ -3828,7 +3832,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -3849,7 +3853,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -3870,7 +3874,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="0"/>
         <v>43313</v>
@@ -3891,7 +3895,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="0"/>
         <v>43344</v>
@@ -3912,7 +3916,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -3939,7 +3943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>61</v>
@@ -3959,7 +3963,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A41,1)</f>
         <v>43405</v>
@@ -3980,7 +3984,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>43435</v>
@@ -4005,7 +4009,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="48" t="s">
         <v>48</v>
       </c>
@@ -4023,7 +4027,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f>EDATE(A44,1)</f>
         <v>43466</v>
@@ -4044,7 +4048,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>43497</v>
@@ -4065,7 +4069,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>43525</v>
@@ -4092,7 +4096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -4119,7 +4123,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>54</v>
@@ -4141,7 +4145,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f>EDATE(A49,1)</f>
         <v>43586</v>
@@ -4162,7 +4166,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="0"/>
         <v>43617</v>
@@ -4183,7 +4187,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="0"/>
         <v>43647</v>
@@ -4204,7 +4208,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>43678</v>
@@ -4225,7 +4229,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -4246,7 +4250,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>43739</v>
@@ -4267,7 +4271,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" ref="A57:A99" si="1">EDATE(A56,1)</f>
         <v>43770</v>
@@ -4292,7 +4296,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="1"/>
         <v>43800</v>
@@ -4313,7 +4317,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="48" t="s">
         <v>49</v>
       </c>
@@ -4331,7 +4335,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f>EDATE(A58,1)</f>
         <v>43831</v>
@@ -4356,7 +4360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>61</v>
@@ -4376,7 +4380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f>EDATE(A60,1)</f>
         <v>43862</v>
@@ -4397,7 +4401,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" si="1"/>
         <v>43891</v>
@@ -4418,7 +4422,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="1"/>
         <v>43922</v>
@@ -4439,7 +4443,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="1"/>
         <v>43952</v>
@@ -4460,7 +4464,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="1"/>
         <v>43983</v>
@@ -4481,7 +4485,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="1"/>
         <v>44013</v>
@@ -4502,7 +4506,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="1"/>
         <v>44044</v>
@@ -4523,7 +4527,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="1"/>
         <v>44075</v>
@@ -4544,7 +4548,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="1"/>
         <v>44105</v>
@@ -4565,7 +4569,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f t="shared" si="1"/>
         <v>44136</v>
@@ -4586,7 +4590,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f t="shared" si="1"/>
         <v>44166</v>
@@ -4611,7 +4615,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>50</v>
       </c>
@@ -4629,7 +4633,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f>EDATE(A72,1)</f>
         <v>44197</v>
@@ -4650,7 +4654,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="1"/>
         <v>44228</v>
@@ -4671,7 +4675,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f t="shared" si="1"/>
         <v>44256</v>
@@ -4692,7 +4696,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" si="1"/>
         <v>44287</v>
@@ -4713,7 +4717,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="1"/>
         <v>44317</v>
@@ -4734,7 +4738,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="1"/>
         <v>44348</v>
@@ -4755,7 +4759,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="1"/>
         <v>44378</v>
@@ -4776,7 +4780,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="1"/>
         <v>44409</v>
@@ -4797,7 +4801,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f t="shared" si="1"/>
         <v>44440</v>
@@ -4818,7 +4822,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f t="shared" si="1"/>
         <v>44470</v>
@@ -4839,7 +4843,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="1"/>
         <v>44501</v>
@@ -4860,7 +4864,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f t="shared" si="1"/>
         <v>44531</v>
@@ -4885,7 +4889,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>51</v>
       </c>
@@ -4903,7 +4907,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f>EDATE(A85,1)</f>
         <v>44562</v>
@@ -4924,7 +4928,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f t="shared" si="1"/>
         <v>44593</v>
@@ -4945,7 +4949,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" si="1"/>
         <v>44621</v>
@@ -4972,7 +4976,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="1"/>
         <v>44652</v>
@@ -4997,7 +5001,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>81</v>
@@ -5017,7 +5021,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>44682</v>
@@ -5038,7 +5042,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="1"/>
         <v>44713</v>
@@ -5065,7 +5069,7 @@
         <v>44721</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>80</v>
@@ -5085,7 +5089,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f>EDATE(A93,1)</f>
         <v>44743</v>
@@ -5110,7 +5114,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="1"/>
         <v>44774</v>
@@ -5137,7 +5141,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="1"/>
         <v>44805</v>
@@ -5158,7 +5162,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="1"/>
         <v>44835</v>
@@ -5179,7 +5183,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="1"/>
         <v>44866</v>
@@ -5204,7 +5208,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>75</v>
@@ -5226,7 +5230,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f>EDATE(A99,1)</f>
         <v>44896</v>
@@ -5251,7 +5255,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>75</v>
@@ -5273,7 +5277,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>76</v>
@@ -5293,7 +5297,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="49"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
         <v>72</v>
       </c>
@@ -5311,7 +5315,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>44927</v>
       </c>
@@ -5337,7 +5341,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>44958</v>
       </c>
@@ -5357,7 +5361,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>44986</v>
       </c>
@@ -5377,7 +5381,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45017</v>
       </c>
@@ -5397,7 +5401,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45047</v>
       </c>
@@ -5417,7 +5421,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45078</v>
       </c>
@@ -5437,7 +5441,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45108</v>
       </c>
@@ -5457,7 +5461,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45139</v>
       </c>
@@ -5477,7 +5481,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45170</v>
       </c>
@@ -5497,7 +5501,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45200</v>
       </c>
@@ -5517,7 +5521,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>45231</v>
       </c>
@@ -5541,7 +5545,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>52</v>
@@ -5563,7 +5567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>61</v>
@@ -5583,15 +5587,19 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>45261</v>
       </c>
-      <c r="B118" s="20"/>
+      <c r="B118" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C118" s="13">
         <v>1.25</v>
       </c>
-      <c r="D118" s="39"/>
+      <c r="D118" s="39">
+        <v>2</v>
+      </c>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
       <c r="G118" s="13">
@@ -5603,7 +5611,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="48" t="s">
         <v>84</v>
       </c>
@@ -5621,20 +5629,22 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>45292</v>
       </c>
       <c r="B120" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C120" s="13"/>
+      <c r="C120" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G120" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
@@ -5643,7 +5653,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>45323</v>
       </c>
@@ -5661,7 +5671,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>45352</v>
       </c>
@@ -5679,7 +5689,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>45383</v>
       </c>
@@ -5697,7 +5707,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>45413</v>
       </c>
@@ -5715,7 +5725,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>45444</v>
       </c>
@@ -5733,7 +5743,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>45474</v>
       </c>
@@ -5751,7 +5761,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>45505</v>
       </c>
@@ -5769,7 +5779,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>45536</v>
       </c>
@@ -5787,7 +5797,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>45566</v>
       </c>
@@ -5805,7 +5815,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>45597</v>
       </c>
@@ -5823,7 +5833,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>45627</v>
       </c>
@@ -5841,7 +5851,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>45658</v>
       </c>
@@ -5859,7 +5869,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>45689</v>
       </c>
@@ -5877,7 +5887,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>45717</v>
       </c>
@@ -5895,7 +5905,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>45748</v>
       </c>
@@ -5913,7 +5923,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>45778</v>
       </c>
@@ -5931,7 +5941,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>45809</v>
       </c>
@@ -5949,7 +5959,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>45839</v>
       </c>
@@ -5967,7 +5977,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>45870</v>
       </c>
@@ -5985,7 +5995,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>45901</v>
       </c>
@@ -6003,7 +6013,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>45931</v>
       </c>
@@ -6021,7 +6031,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>45962</v>
       </c>
@@ -6039,7 +6049,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>45992</v>
       </c>
@@ -6057,7 +6067,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>46023</v>
       </c>
@@ -6075,7 +6085,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>46054</v>
       </c>
@@ -6093,7 +6103,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>46082</v>
       </c>
@@ -6111,7 +6121,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -6127,7 +6137,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="41"/>
       <c r="B148" s="15"/>
       <c r="C148" s="42"/>
@@ -6158,10 +6168,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6184,7 +6194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -6192,21 +6202,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -6219,7 +6229,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6248,7 +6258,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -6272,17 +6282,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6303,7 +6313,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6330,7 +6340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6356,7 +6366,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6382,7 +6392,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6408,7 +6418,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6434,7 +6444,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6460,7 +6470,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6486,7 +6496,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6512,7 +6522,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6532,7 +6542,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6552,7 +6562,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6572,7 +6582,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6593,7 +6603,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6614,7 +6624,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6635,7 +6645,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6656,7 +6666,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6677,7 +6687,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6698,7 +6708,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6719,7 +6729,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6740,7 +6750,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6761,7 +6771,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6782,7 +6792,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6803,7 +6813,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6824,7 +6834,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6845,7 +6855,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6866,7 +6876,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6887,7 +6897,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6908,7 +6918,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6929,7 +6939,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6950,7 +6960,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6971,7 +6981,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6992,7 +7002,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7001,7 +7011,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7010,7 +7020,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7019,7 +7029,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7028,7 +7038,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7037,7 +7047,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7046,7 +7056,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7055,7 +7065,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7064,7 +7074,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7073,7 +7083,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7082,7 +7092,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7091,7 +7101,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7100,7 +7110,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7109,7 +7119,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7118,7 +7128,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7127,7 +7137,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7136,7 +7146,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7145,7 +7155,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7154,7 +7164,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7163,7 +7173,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7172,7 +7182,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7181,7 +7191,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7190,7 +7200,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7199,7 +7209,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7208,7 +7218,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7217,7 +7227,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7226,7 +7236,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7235,7 +7245,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7244,7 +7254,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7253,7 +7263,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
